--- a/finetuning/it_datasets/it_dataset/it_ksour essaf_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ksour essaf_dataset.xlsx
@@ -650,9 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a great cafe, check out Cafe Bachar located at 92PP+J8H. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe experiences to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:20, but closed on []. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bachar/data=!4m7!3m6!1s0x13018a68082335a1:0x43924ea4047a6fca!8m2!3d35.3865536!4d11.0358453!16s%2Fg%2F11bzz2flmn!19sChIJoTUjCGiKARMRym96BKROkkM?authuser=0&amp;hl=fr&amp;rclk=1 or call Cafe Bachar (proprietaire).</t>
+          <t>Café Bachar is a highly-rated cafe located in Ksour Essaf (35.4168972, 10.994572). Open from 6:00 AM to 12:20 AM, it offers a cozy and convenient setting for enjoying a cup of coffee or a light meal. With its convenient location and positive customer reviews, Café Bachar is a popular choice for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -755,9 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for something fun to do, check out Cafe Hamama located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot.
-It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.4093237, 10.9989095.
-For more details, visit their website at https://www.facebook.com/cafehamama/ or call them at 98 372 255.</t>
+          <t>Cafe Hamama is a top-rated cafe located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. It is highly acclaimed for its exceptional service, earning a perfect 5.0 rating from nine reviews. Cafe Hamama is open daily from 7:00 AM to midnight, offering a cozy ambiance and a menu tailored to cafe enthusiasts. With its convenient location and welcoming atmosphere, Cafe Hamama is an ideal destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -856,7 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a top-rated Cafe, check out Storia cafe located at C 90, Ksour Essaf. With a rating of 4.2, this Cafe is a must-visit spot for Cafe lovers. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.4168972, 10.994572.</t>
+          <t>Storia Cafe is a 4.2-stars rated cafe located in ksour essaf. It is open 24 hours a day and offers a variety of services. Its coordinates are (35.4168972, 10.994572).</t>
         </is>
       </c>
     </row>
@@ -955,7 +951,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for something fun to do, check out 7 Days Food located at 7 Days Food, 88 C82, Ksour Essaf. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.4168972, 10.994572.</t>
+          <t>7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a great cafe to visit, check out Cafe Hamama located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 35.4093237, 10.9989095. For more details, visit their website at https://www.facebook.com/cafehamama/ or call them at 98 372 255.</t>
+          <t>**Cafe Hamama**, located at (35.4093237, 10.9989095). Cafe Hamama is a cafe offering a wide variety of coffee, tea, and other beverages. It is located in the ksour essaf neighborhood of Tunis, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Ksour Essaf and looking for a great cafe, check out Storia cafe located at C 90, Ksour Essaf. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime you like. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their website at https://www.google.com/maps/place/Storia+cafe/data=!4m7!3m6!1s0x130221aa61dd9e29:0x72f41834156f66df!8m2!3d35.4251586!4d10.9936723!16s%2Fg%2F11fp1lzcbl!19sChIJKZ7dYaohAhMR32ZvFTQY9HI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Storia cafe is a cafe located in Ksour Essaf, Tunisia. It offers a variety of coffee, tea, and pastries. The cafe is open 24 hours a day and has a rating of 4.2 out of 5 stars on Google. The cafe is located at Latitude: 35.4168972 and Longitude: 10.994572.</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a quick bite to eat, check out 7 Days Food located at 88 C82, Ksour Essaf. This top-rated destination is perfect for fast food lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their link at https://www.google.com/maps/place/7+Days+Food/data=!4m7!3m6!1s0x1302218358969b85:0xa79a1c246c075ccd!8m2!3d35.4174677!4d10.9984199!16s%2Fg%2F11ts443b85!19sChIJhZuWWIMhAhMRzVwHbCQcmqc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>7 Days Food is a fast food restaurant located in Ksour Essaf. It offers a wide variety of dishes, including burgers, sandwiches, and pizzas. The restaurant is open from 12:00 to 23:00 every day of the week. The coordinates of the restaurant are (35.4168972, 10.994572).</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1347,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf, be sure to visit Louage station Ksour Essef, a top-rated Service de taxi minibus option. Located at C292+5CW Louage station Ksour Essef, Ksour Essaf, this popular spot boasts a rating of 3.5. Their website and phone number are not available, but you can use the GPS coordinates (35.41808, 10.99475) to get there.</t>
+          <t>Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.</t>
         </is>
       </c>
     </row>
